--- a/InteractiveRobotFramework/Data/Config.xlsx
+++ b/InteractiveRobotFramework/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt-s-miyagi\Documents\UiPath\InteractiveRobotFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\UiPath.ReusableCode\InteractiveRobotFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEE5AE-1CCD-4DBB-970D-CE47A81FD748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="4260" yWindow="340" windowWidth="21340" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -100,22 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExecResultHtmlDirectory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShowExecResultHtml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OutputExecResultHtml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShowPreExecMessage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ExecResult</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -124,13 +109,29 @@
     <rPh sb="9" eb="11">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutputResultHtml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultHtmlDirectory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowResultHtml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowPreStartMessage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +252,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,7 +289,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -347,7 +354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -432,7 +445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -489,7 +508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -796,24 +821,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" style="2" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="26.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.1796875" style="2" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="14.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -847,7 +872,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -875,9 +900,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -886,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -914,7 +939,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -925,20 +950,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -947,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>

--- a/InteractiveRobotFramework/Data/Config.xlsx
+++ b/InteractiveRobotFramework/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\UiPath.ReusableCode\InteractiveRobotFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEE5AE-1CCD-4DBB-970D-CE47A81FD748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD649-8A92-40A8-B8A0-033EF973208D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="340" windowWidth="21340" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExecResult</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行結果Htmlの出力ディレクトリ</t>
     <rPh sb="9" eb="11">
       <t>シュツリョク</t>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>ShowPreStartMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Work</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -826,7 +826,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12" x14ac:dyDescent="0.35"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -952,18 +952,18 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
